--- a/Combilne_Doc/Learn_To_Plan.xlsx
+++ b/Combilne_Doc/Learn_To_Plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7387078C-39F1-4A08-996C-247B480931D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E090D-A583-4646-B1A6-570B1B27CB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -5254,6 +5254,9 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5343,9 +5346,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6634,11 +6634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="67" t="s">
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="96" t="s">
         <v>495</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -6654,13 +6654,13 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="64" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="95"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="64" t="s">
         <v>514</v>
       </c>
@@ -6703,7 +6703,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="96" t="s">
         <v>509</v>
       </c>
       <c r="C19" s="64" t="s">
@@ -6711,19 +6711,19 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="64" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="64" t="s">
         <v>506</v>
       </c>
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="96" t="s">
         <v>389</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -6745,43 +6745,43 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="95"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="65" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="95"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="65" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="95"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="65" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="95"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="65" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="95"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="65" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="95"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="65" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="95"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="65" t="s">
         <v>503</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
@@ -6855,19 +6855,19 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="115"/>
+      <c r="B6" s="116"/>
       <c r="C6" t="s">
         <v>63</v>
       </c>
@@ -6878,7 +6878,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="116" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -6886,31 +6886,31 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="115"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="115"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="115"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="115"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="115"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="7" t="s">
         <v>71</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="116" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -6929,25 +6929,25 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="115"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="115"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="117" t="s">
         <v>190</v>
       </c>
       <c r="C24" t="s">
@@ -6955,25 +6955,25 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="116"/>
+      <c r="B25" s="117"/>
       <c r="C25" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="116"/>
+      <c r="B26" s="117"/>
       <c r="C26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="116"/>
+      <c r="B27" s="117"/>
       <c r="C27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1">
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="113" t="s">
         <v>197</v>
       </c>
       <c r="C29" t="s">
@@ -6981,19 +6981,19 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="113"/>
+      <c r="B30" s="114"/>
       <c r="C30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="114"/>
+      <c r="B31" s="115"/>
       <c r="C31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="113" t="s">
         <v>196</v>
       </c>
       <c r="C33" t="s">
@@ -7001,13 +7001,13 @@
       </c>
     </row>
     <row r="34" spans="2:3" ht="30">
-      <c r="B34" s="113"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="114"/>
+      <c r="B35" s="115"/>
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -7052,11 +7052,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="C4" s="49" t="s">
@@ -7064,11 +7064,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="118" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="18">
@@ -7180,11 +7180,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>434</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="18">
@@ -7282,11 +7282,11 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="18">
@@ -7370,11 +7370,11 @@
       <c r="D38" s="57"/>
     </row>
     <row r="40" spans="2:4" ht="15.75">
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="18">
@@ -7484,10 +7484,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="3" spans="1:3" ht="90">
       <c r="B3" s="12" t="s">
@@ -7554,7 +7554,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="99" t="s">
         <v>579</v>
       </c>
       <c r="C19" s="29" t="s">
@@ -7562,13 +7562,13 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="31" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="29" t="s">
         <v>578</v>
       </c>
@@ -7605,10 +7605,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="59" t="s">
@@ -7693,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66BC9B-DD2C-4317-B7FE-D9889C56F72A}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7704,10 +7704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="63" t="s">
@@ -7734,7 +7734,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="102" t="s">
         <v>395</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -7742,13 +7742,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
-      <c r="C9" s="101"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="31" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="102" t="s">
         <v>399</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7756,19 +7756,19 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="101"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="40" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="C13" s="101"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="40" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="C14" s="101"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="40" t="s">
         <v>402</v>
       </c>
@@ -7790,7 +7790,7 @@
       </c>
     </row>
     <row r="20" spans="3:4" ht="30">
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="102" t="s">
         <v>407</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -7798,13 +7798,13 @@
       </c>
     </row>
     <row r="21" spans="3:4" ht="30">
-      <c r="C21" s="101"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="31" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="102" t="s">
         <v>410</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -7812,19 +7812,19 @@
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="101"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="60">
-      <c r="C25" s="101"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="31" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="26" spans="3:4" ht="120">
-      <c r="C26" s="101"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="31" t="s">
         <v>550</v>
       </c>
@@ -7949,7 +7949,7 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7960,10 +7960,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="4" spans="1:3" ht="60">
       <c r="B4" s="13" t="s">
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="123" t="s">
         <v>335</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -7982,13 +7982,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="150">
-      <c r="B7" s="123"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="31" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="102" t="s">
         <v>338</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -7996,19 +7996,19 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45">
-      <c r="B10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="40" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="40" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="125" t="s">
         <v>335</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -8016,48 +8016,48 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="124"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="40" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="124"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="40" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="135">
-      <c r="B16" s="124"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="31" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
-      <c r="B17" s="124"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="31" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="195">
-      <c r="B18" s="124"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="31" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="102" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="101"/>
+      <c r="B22" s="102"/>
       <c r="C22" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" t="s">
         <v>349</v>
       </c>
@@ -8071,7 +8071,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="102" t="s">
         <v>351</v>
       </c>
       <c r="C27" s="29" t="s">
@@ -8079,13 +8079,13 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="101"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="45">
-      <c r="B29" s="101"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="31" t="s">
         <v>355</v>
       </c>
@@ -8107,7 +8107,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="102" t="s">
         <v>362</v>
       </c>
       <c r="C34" s="43" t="s">
@@ -8115,28 +8115,28 @@
       </c>
     </row>
     <row r="35" spans="2:3" ht="30">
-      <c r="B35" s="101"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="44" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="101"/>
+      <c r="B36" s="102"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="101"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="43" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30">
-      <c r="B38" s="101"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="44" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="102" t="s">
         <v>383</v>
       </c>
       <c r="C40" s="29" t="s">
@@ -8144,19 +8144,19 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="101"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="101"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="29" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30">
-      <c r="B43" s="101"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="31" t="s">
         <v>378</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" ht="30">
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="102" t="s">
         <v>384</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -8178,16 +8178,16 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="75">
-      <c r="B48" s="101"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="40" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="B49" s="101"/>
+      <c r="B49" s="102"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="101"/>
+      <c r="B50" s="102"/>
     </row>
     <row r="52" spans="1:3" ht="270">
       <c r="B52" s="41" t="s">
@@ -8198,24 +8198,24 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="B54" s="101" t="s">
+      <c r="B54" s="102" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="101"/>
+      <c r="B55" s="102"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="B56" s="101"/>
+      <c r="B56" s="102"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="101"/>
+      <c r="B57" s="102"/>
     </row>
     <row r="63" spans="1:3" ht="30">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="122" t="s">
         <v>481</v>
       </c>
-      <c r="B63" s="121"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="11" t="s">
         <v>486</v>
       </c>
@@ -8253,10 +8253,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="121" t="s">
+      <c r="A85" s="122" t="s">
         <v>490</v>
       </c>
-      <c r="B85" s="121"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="62" t="s">
         <v>491</v>
       </c>
@@ -8303,10 +8303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="18" t="s">
@@ -8341,73 +8341,73 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="109"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="109"/>
+      <c r="C11" s="110"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="109"/>
+      <c r="C12" s="110"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="109"/>
+      <c r="C13" s="110"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="109"/>
+      <c r="C14" s="110"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="109"/>
+      <c r="C16" s="110"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="109"/>
+      <c r="C17" s="110"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="109"/>
+      <c r="C18" s="110"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="109"/>
+      <c r="C19" s="110"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="109"/>
+      <c r="C20" s="110"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="109"/>
+      <c r="C21" s="110"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="109"/>
+      <c r="C23" s="110"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="109"/>
+      <c r="C24" s="110"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="109"/>
+      <c r="C25" s="110"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="109"/>
+      <c r="C26" s="110"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="109"/>
+      <c r="C27" s="110"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="109"/>
+      <c r="C29" s="110"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="109"/>
+      <c r="C30" s="110"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="109"/>
+      <c r="C31" s="110"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="109"/>
+      <c r="C32" s="110"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="109"/>
+      <c r="C34" s="110"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="109"/>
+      <c r="C35" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8427,14 +8427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DD0F64-3E21-4776-8F24-F79A0E0487DD}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="87" bestFit="1" customWidth="1"/>
@@ -8630,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5D46C-4F64-4E12-BB53-146A1A6737B9}">
   <dimension ref="B3:C64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8855,8 +8856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98CF305-7B17-4620-9605-95D6136D261B}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8866,53 +8867,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="101"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="101"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="100"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="101"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="100"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="101"/>
     </row>
     <row r="10" spans="1:3" ht="62.25" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
     </row>
     <row r="13" spans="1:3" ht="75">
       <c r="B13" s="69" t="s">
@@ -8937,8 +8938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A405608-F71F-48BE-8314-BAE07F5A6D36}">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8948,108 +8949,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99" t="s">
         <v>536</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
     </row>
     <row r="9" spans="1:3" ht="55.5" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
     </row>
     <row r="20" spans="1:3" ht="42" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
     </row>
     <row r="21" spans="1:3" ht="150.75" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9067,7 +9068,7 @@
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9085,7 +9086,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>535</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -9093,59 +9094,59 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="29" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="31" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="29" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="29" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="29" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="29" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="29" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="29" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="29" t="s">
         <v>666</v>
       </c>
@@ -9163,8 +9164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9175,10 +9176,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="3" spans="1:4" ht="66.75" customHeight="1">
       <c r="B3" s="37" t="s">
@@ -9189,10 +9190,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="2"/>
@@ -9218,10 +9219,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="103"/>
     </row>
     <row r="18" spans="2:3" ht="18.75">
       <c r="B18" s="22" t="s">
@@ -9518,7 +9519,7 @@
       <c r="B73" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="107" t="s">
+      <c r="C73" s="108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -9526,25 +9527,25 @@
       <c r="B74" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="108"/>
+      <c r="C74" s="109"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="108"/>
+      <c r="C75" s="109"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="108"/>
+      <c r="C76" s="109"/>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="108"/>
+      <c r="C77" s="109"/>
     </row>
     <row r="78" spans="2:3" ht="75">
       <c r="B78" s="47" t="s">
@@ -9716,10 +9717,10 @@
       </c>
     </row>
     <row r="111" spans="2:3" ht="23.25">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="102"/>
+      <c r="C111" s="103"/>
     </row>
     <row r="114" spans="2:3" ht="18.75">
       <c r="B114" s="22" t="s">
@@ -9745,7 +9746,7 @@
       </c>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="104" t="s">
+      <c r="B121" s="105" t="s">
         <v>205</v>
       </c>
       <c r="C121" s="20" t="s">
@@ -9753,25 +9754,25 @@
       </c>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="105"/>
+      <c r="B122" s="106"/>
       <c r="C122" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="105"/>
+      <c r="B123" s="106"/>
       <c r="C123" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="106"/>
+      <c r="B124" s="107"/>
       <c r="C124" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="103" t="s">
+      <c r="B125" s="104" t="s">
         <v>206</v>
       </c>
       <c r="C125" s="20" t="s">
@@ -9779,19 +9780,19 @@
       </c>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="103"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="20" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="103"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="103" t="s">
+      <c r="B128" s="104" t="s">
         <v>207</v>
       </c>
       <c r="C128" s="20" t="s">
@@ -9799,40 +9800,40 @@
       </c>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="103"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="103"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="103"/>
+      <c r="B131" s="104"/>
       <c r="C131" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="103"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="103"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="23.25">
-      <c r="B137" s="102" t="s">
+      <c r="B137" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="102"/>
+      <c r="C137" s="103"/>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="19" t="s">
@@ -9865,10 +9866,10 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="21">
-      <c r="A158" s="96" t="s">
+      <c r="A158" s="97" t="s">
         <v>377</v>
       </c>
-      <c r="B158" s="96"/>
+      <c r="B158" s="97"/>
     </row>
     <row r="161" spans="2:3" ht="60">
       <c r="B161" s="38" t="s">
@@ -9975,10 +9976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="4" spans="1:3" ht="141" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -9989,7 +9990,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>326</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -9997,25 +9998,25 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="29" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="29" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="29" t="s">
         <v>331</v>
       </c>
@@ -10039,7 +10040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -10050,13 +10051,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="5" spans="1:3" ht="120">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -10197,10 +10198,10 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="96"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="16" t="s">
@@ -10471,7 +10472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24D74AC-338C-4F4D-8C5C-BDD6069360D7}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -10483,13 +10484,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="97"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="111" t="s">
         <v>241</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -10500,7 +10501,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="C5" s="111"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="28" t="s">
         <v>243</v>
       </c>
@@ -10509,7 +10510,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -10520,7 +10521,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="28" t="s">
         <v>243</v>
       </c>
@@ -10529,7 +10530,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="110" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -10540,7 +10541,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="C11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="28" t="s">
         <v>243</v>
       </c>
@@ -10549,7 +10550,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="110" t="s">
         <v>250</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -10560,7 +10561,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="28" t="s">
         <v>243</v>
       </c>
@@ -10569,7 +10570,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="110" t="s">
         <v>254</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -10580,7 +10581,7 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="28" t="s">
         <v>243</v>
       </c>
@@ -10589,7 +10590,7 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="110" t="s">
         <v>261</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -10600,7 +10601,7 @@
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="109"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="28" t="s">
         <v>243</v>
       </c>
@@ -10609,7 +10610,7 @@
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="110" t="s">
         <v>260</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -10620,7 +10621,7 @@
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="109"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="28" t="s">
         <v>243</v>
       </c>
@@ -10629,7 +10630,7 @@
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="110" t="s">
         <v>264</v>
       </c>
       <c r="D25" s="28" t="s">
@@ -10640,7 +10641,7 @@
       </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="109"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="28" t="s">
         <v>243</v>
       </c>
@@ -10649,10 +10650,10 @@
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="109"/>
+      <c r="C27" s="110"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="109"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="28" t="s">
         <v>242</v>
       </c>
@@ -10661,7 +10662,7 @@
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="28" t="s">
         <v>243</v>
       </c>
@@ -10670,7 +10671,7 @@
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="110" t="s">
         <v>269</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -10681,7 +10682,7 @@
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="109"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="32" t="s">
         <v>243</v>
       </c>
@@ -10690,10 +10691,10 @@
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="109"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="109"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="32" t="s">
         <v>242</v>
       </c>
@@ -10702,7 +10703,7 @@
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="109"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="32" t="s">
         <v>243</v>
       </c>
@@ -10711,7 +10712,7 @@
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="110" t="s">
         <v>274</v>
       </c>
       <c r="D37" s="28" t="s">
@@ -10722,7 +10723,7 @@
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="109"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="28" t="s">
         <v>243</v>
       </c>
@@ -10731,7 +10732,7 @@
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -10742,7 +10743,7 @@
       </c>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="109"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="28" t="s">
         <v>243</v>
       </c>
@@ -10751,7 +10752,7 @@
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="111" t="s">
         <v>280</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -10762,7 +10763,7 @@
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="111"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="28" t="s">
         <v>243</v>
       </c>
@@ -10771,7 +10772,7 @@
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="111" t="s">
         <v>283</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -10782,7 +10783,7 @@
       </c>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="111"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="28" t="s">
         <v>243</v>
       </c>
@@ -10791,7 +10792,7 @@
       </c>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="110" t="s">
         <v>286</v>
       </c>
       <c r="D49" s="32" t="s">
@@ -10802,7 +10803,7 @@
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="109"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="32" t="s">
         <v>243</v>
       </c>
@@ -10811,10 +10812,10 @@
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="109"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="109"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="32" t="s">
         <v>242</v>
       </c>
@@ -10823,7 +10824,7 @@
       </c>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="109"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="32" t="s">
         <v>243</v>
       </c>
@@ -10832,10 +10833,10 @@
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="109"/>
+      <c r="C54" s="110"/>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="109"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="32" t="s">
         <v>242</v>
       </c>
@@ -10844,7 +10845,7 @@
       </c>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="109"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="32" t="s">
         <v>243</v>
       </c>
@@ -10853,10 +10854,10 @@
       </c>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="109"/>
+      <c r="C57" s="110"/>
     </row>
     <row r="58" spans="3:5">
-      <c r="C58" s="109"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="32" t="s">
         <v>242</v>
       </c>
@@ -10865,7 +10866,7 @@
       </c>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="109"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="32" t="s">
         <v>243</v>
       </c>
@@ -10874,10 +10875,10 @@
       </c>
     </row>
     <row r="60" spans="3:5">
-      <c r="C60" s="109"/>
+      <c r="C60" s="110"/>
     </row>
     <row r="61" spans="3:5">
-      <c r="C61" s="109"/>
+      <c r="C61" s="110"/>
       <c r="D61" s="32" t="s">
         <v>242</v>
       </c>
@@ -10886,7 +10887,7 @@
       </c>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="109"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="32" t="s">
         <v>243</v>
       </c>
@@ -10895,7 +10896,7 @@
       </c>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="110" t="s">
         <v>297</v>
       </c>
       <c r="D64" s="32" t="s">
@@ -10906,7 +10907,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="C65" s="109"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="32" t="s">
         <v>243</v>
       </c>
@@ -10915,7 +10916,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="C67" s="109" t="s">
+      <c r="C67" s="110" t="s">
         <v>300</v>
       </c>
       <c r="D67" s="32" t="s">
@@ -10926,7 +10927,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="C68" s="109"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="32" t="s">
         <v>243</v>
       </c>
@@ -10935,10 +10936,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="C69" s="109"/>
+      <c r="C69" s="110"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="C70" s="109"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="32" t="s">
         <v>242</v>
       </c>
@@ -10947,7 +10948,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="C71" s="109"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="32" t="s">
         <v>243</v>
       </c>
@@ -10956,7 +10957,7 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="C73" s="109" t="s">
+      <c r="C73" s="110" t="s">
         <v>305</v>
       </c>
       <c r="D73" s="32" t="s">
@@ -10967,7 +10968,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="C74" s="109"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="32" t="s">
         <v>243</v>
       </c>
@@ -10976,7 +10977,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="C76" s="109" t="s">
+      <c r="C76" s="110" t="s">
         <v>308</v>
       </c>
       <c r="D76" s="32" t="s">
@@ -10987,7 +10988,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="C77" s="109"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="32" t="s">
         <v>243</v>
       </c>
@@ -10996,11 +10997,11 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="21">
-      <c r="A80" s="96" t="s">
+      <c r="A80" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
     </row>
     <row r="82" spans="3:5">
       <c r="C82" s="30" t="s">
@@ -11025,7 +11026,7 @@
       </c>
     </row>
     <row r="86" spans="3:5" ht="90">
-      <c r="C86" s="109" t="s">
+      <c r="C86" s="110" t="s">
         <v>316</v>
       </c>
       <c r="D86" s="36" t="s">
@@ -11036,7 +11037,7 @@
       </c>
     </row>
     <row r="87" spans="3:5" ht="30">
-      <c r="C87" s="109"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="36" t="s">
         <v>242</v>
       </c>
@@ -11045,7 +11046,7 @@
       </c>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="109"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="28" t="s">
         <v>243</v>
       </c>
@@ -11066,15 +11067,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C49:C62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="A80:C80"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C4:C5"/>
@@ -11087,6 +11079,15 @@
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C49:C62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E82" r:id="rId1" xr:uid="{A8B5107F-8F15-41B3-9E5B-C67899127BAC}"/>

--- a/Combilne_Doc/Learn_To_Plan.xlsx
+++ b/Combilne_Doc/Learn_To_Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E090D-A583-4646-B1A6-570B1B27CB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF39484D-DF7D-41C4-9BD4-E600312C5402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -3491,10 +3491,6 @@
 It collects response from target server and show the performance of the applicationr via graphs or tables.</t>
   </si>
   <si>
-    <t xml:space="preserve"> complete test plan will consist of one or more elements such as thread groups, logic controllers, sample-generating controllers, listeners, timers, assertions, and configuration elements.
-A test plan must have at least one thread group.</t>
-  </si>
-  <si>
     <t>What is a Test Plan in Jmeter</t>
   </si>
   <si>
@@ -4634,6 +4630,10 @@
   </si>
   <si>
     <t>After bug fixes we do sanity testing</t>
+  </si>
+  <si>
+    <t>complete test plan will consist of one or more elements such as thread groups, logic controllers, sample-generating controllers, listeners, timers, assertions, and configuration elements.
+A test plan must have at least one thread group.</t>
   </si>
 </sst>
 </file>
@@ -7694,7 +7694,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8631,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5D46C-4F64-4E12-BB53-146A1A6737B9}">
   <dimension ref="B3:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8651,199 +8651,199 @@
     </row>
     <row r="6" spans="2:3" ht="45">
       <c r="B6" s="91" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>605</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="45">
       <c r="B9" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>607</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="45">
       <c r="B12" s="92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="45">
       <c r="B15" s="92" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="60">
       <c r="C16" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="92" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" t="s">
         <v>614</v>
-      </c>
-      <c r="C18" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="C19" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="C22" t="s">
         <v>617</v>
-      </c>
-      <c r="C22" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="120">
       <c r="C23" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="91" t="s">
+        <v>619</v>
+      </c>
+      <c r="C26" s="88" t="s">
         <v>620</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" s="88" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" s="88" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" s="88" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" s="88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="91" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="92" t="s">
+        <v>628</v>
+      </c>
+      <c r="C39" s="87" t="s">
         <v>629</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="C40" s="87" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" s="87" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="C42" s="87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="C43" s="87" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="C44" s="87" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" s="87" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" s="87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="60">
       <c r="B49" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>638</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="45">
       <c r="B52" s="90" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="60">
       <c r="B55" s="90" t="s">
+        <v>641</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="30">
       <c r="B58" s="92" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="60">
       <c r="B61" s="91" t="s">
+        <v>645</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="30">
       <c r="B64" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>648</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -8872,7 +8872,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8938,7 +8938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A405608-F71F-48BE-8314-BAE07F5A6D36}">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -8954,7 +8954,7 @@
         <v>536</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9142,13 +9142,13 @@
     <row r="14" spans="2:3">
       <c r="B14" s="102"/>
       <c r="C14" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="102"/>
       <c r="C15" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -10061,15 +10061,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="B7" s="86" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="90">
@@ -10077,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="90">
@@ -10085,7 +10085,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10098,7 +10098,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -10106,7 +10106,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -10114,7 +10114,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="75">
@@ -10122,7 +10122,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30">
@@ -10130,7 +10130,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -10139,10 +10139,10 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="86" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -10150,7 +10150,7 @@
         <v>416</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="60">
@@ -10472,7 +10472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24D74AC-338C-4F4D-8C5C-BDD6069360D7}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
@@ -11067,6 +11067,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C49:C62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C4:C5"/>
@@ -11079,15 +11088,6 @@
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C49:C62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E82" r:id="rId1" xr:uid="{A8B5107F-8F15-41B3-9E5B-C67899127BAC}"/>
